--- a/_Out/Server/NFDataCfg/Excel_Ini/WorldServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/WorldServer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ServerID</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>MaxOnline</t>
+  </si>
+  <si>
+    <t>WorldServer_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000103001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,16 +463,18 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="3" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="38.75" customWidth="1"/>
@@ -490,8 +504,27 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>3001</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -527,12 +560,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/WorldServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/WorldServer.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>3001</v>
+        <v>13001</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/WorldServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/WorldServer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -475,12 +475,9 @@
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -503,7 +500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -525,38 +522,26 @@
       <c r="G2">
         <v>13001</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1">
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
